--- a/전체 메모.xlsx
+++ b/전체 메모.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\도소라\keri_zip_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB353307-0028-429D-A6EF-D65CC015A492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6D28ED-B9E2-421B-B3F2-203C5F5CC4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="29">
   <si>
     <t>증례번호</t>
   </si>
@@ -95,6 +95,19 @@
   </si>
   <si>
     <t>채널L 이상</t>
+  </si>
+  <si>
+    <t>대화 NV</t>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>그3 CL/대6 CR 233~292/대13 CR/대15 CR 734~1125/대16 CR 988~1137/이1 CR 529~1828/절 CR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그/절/이 CR</t>
   </si>
 </sst>
 </file>
@@ -467,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1537,6 +1550,95 @@
         <v>5</v>
       </c>
     </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>60185</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>60186</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>60187</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>60188</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>60189</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>60190</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>60191</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
